--- a/backend/data/plumData/plumTableData/plumInfoallrevised.xlsx
+++ b/backend/data/plumData/plumTableData/plumInfoallrevised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\MY_PROJECTS\web_application\backend\data\plumData\plumTableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E714338-6677-4198-8326-90DC5654F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0338DECD-BBB3-40BA-AFCB-927B77AEC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="10" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
   </bookViews>
   <sheets>
     <sheet name="brand" sheetId="4" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="PlumType" sheetId="5" r:id="rId7"/>
     <sheet name="fittingInfo" sheetId="6" r:id="rId8"/>
     <sheet name="pipeinfo" sheetId="7" r:id="rId9"/>
-    <sheet name="FittingPriceInfo" sheetId="11" r:id="rId10"/>
-    <sheet name="plumPriceVersion" sheetId="12" r:id="rId11"/>
+    <sheet name="plumPriceVersion" sheetId="12" r:id="rId10"/>
+    <sheet name="FittingPriceInfo" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">fittingInfo!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1190,11 +1191,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5080C84-6ABE-457E-87B7-DB4E7284B1BF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <v>"2022.03.14"</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <v>("2022.03.14")</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plum_pipe_end_type (plum_pipe_end_type) VALUES",(TRANSPOSE(D2:D3)&amp;","))</f>
+        <v>INSERT INTO plum_pipe_end_type (plum_pipe_end_type) VALUES("2022.03.14"),,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F7708A-D23D-43C7-9A3A-8171FA9D9E57}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1298,7 @@
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plum_fitting_price (plum_fitting_info_id,brand_id,plum_price_version_id,plum_fitting_price) VALUES",(TRANSPOSE(F2:F187)&amp;","))</f>
-        <v>INSERT INTO plum_fitting_price (plum_fitting_info_id,brand_id,plum_price_version_id,plum_fitting_price) VALUES( 1,1,1,45),( 2,1,1,70),( 3,1,1,105),( 4,1,1,150),( 5,1,1,215),( 6,1,1,295),( 7,1,1,425),( 8,1,1,875),( 9,1,1,1200),( 10,1,1,58),( 11,1,1,82),( 12,1,1,110),( 13,1,1,177),( 14,1,1,240),( 15,1,1,320),( 16,1,1,560),( 17,1,1,1040),( 18,1,1,1665),( 19,1,1,52),( 20,1,1,89),( 21,1,1,104),( 22,1,1,182),( 23,1,1,254),( 24,1,1,345),( 25,1,1,657),( 26,1,1,1053),( 27,1,1,1729),( 28,1,1,45),( 29,1,1,90),( 30,1,1,105),( 31,1,1,195),( 32,1,1,305),( 33,1,1,455),( 34,1,1,800),( 35,1,1,1275),( 36,1,1,2000),( 37,1,1,55),( 38,1,1,105),( 39,1,1,155),( 40,1,1,260),( 41,1,1,430),( 42,1,1,600),( 43,1,1,1000),( 44,1,1,1755),( 45,1,1,2665),( 46,1,1,72),( 47,1,1,104),( 48,1,1,156),( 49,1,1,330),( 50,1,1,540),( 51,1,1,930),( 52,1,1,1755),( 53,1,1,3550),( 54,1,1,5265),( 55,1,1,55),( 56,1,1,72),( 57,1,1,98),( 58,1,1,140),( 59,1,1,195),( 60,1,1,260),( 61,1,1,550),( 62,1,1,975),( 63,1,1,1160),( 64,1,1,23),( 65,1,1,30),( 66,1,1,33),( 67,1,1,39),( 68,1,1,40),( 69,1,1,45),( 70,1,1,145),( 71,1,1,155),( 72,1,1,295),( 73,1,1,52),( 74,1,1,85),( 75,1,1,120),( 76,1,1,185),( 77,1,1,265),( 78,1,1,435),( 79,1,1,70),( 80,1,1,90),( 81,1,1,105),( 82,1,1,125),( 83,1,1,150),( 84,1,1,165),( 85,1,1,180),( 86,1,1,200),( 87,1,1,235),( 88,1,1,245),( 89,1,1,305),( 90,1,1,310),( 91,1,1,325),( 92,1,1,340),( 93,1,1,345),( 94,1,1,525),( 95,1,1,535),( 96,1,1,545),( 97,1,1,585),( 98,1,1,620),( 99,1,1,670),( 100,1,1,730),( 101,1,1,820),( 102,1,1,1480),( 103,1,1,1550),( 104,1,1,1650),( 105,1,1,1820),( 106,1,1,104),( 107,1,1,145),( 108,1,1,155),( 109,1,1,210),( 110,1,1,245),( 111,1,1,255),( 112,1,1,305),( 113,1,1,340),( 114,1,1,350),( 115,1,1,405),( 116,1,1,645),( 117,1,1,650),( 118,1,1,665),( 119,1,1,670),( 120,1,1,675),( 121,1,1,1200),( 122,1,1,1220),( 123,1,1,1230),( 124,1,1,1255),( 125,1,1,1710),( 126,1,1,1790),( 127,1,1,1820),( 128,1,1,1835),( 129,1,1,2705),( 130,1,1,2840),( 131,1,1,2875),( 132,1,1,2940),( 133,1,1,130),( 134,1,1,135),( 135,1,1,105),( 136,1,1,130),( 137,1,1,165),( 138,1,1,200),( 139,1,1,295),( 140,1,1,240),( 141,1,1,275),( 142,1,1,350),( 143,1,1,190),( 144,1,1,220),( 145,1,1,145),( 143,1,1,25),( 144,1,1,35),( 145,1,1,45),( 146,1,1,240),( 147,1,1,295),( 148,1,1,405),( 149,1,1,1035),( 150,1,1,240),( 151,1,1,305),( 152,1,1,460),( 153,1,1,1000),( 154,1,1,275),( 155,1,1,395),( 156,1,1,615),( 157,1,1,1410),( 158,1,1,455),( 159,1,1,730),( 160,1,1,1620),( 161,1,1,255),( 162,1,1,460),( 163,1,1,645),( 164,1,1,1710),( 165,1,1,325),( 166,1,1,415),( 167,1,1,555),( 168,1,1,1515),( 169,1,1,325),( 170,1,1,435),( 171,1,1,690),( 172,1,1,1495),( 173,1,1,375),( 174,1,1,595),( 175,1,1,920),( 176,1,1,1785),( 177,1,1,505),( 178,1,1,740),( 179,1,1,2015),( 180,1,1,360),( 181,1,1,610),( 182,1,1,970),( 183,1,1,2140),</v>
+        <v>INSERT INTO plum_fitting_price (plum_fitting_info_id,brand_id,plum_price_version_id,plum_fitting_price) VALUES( 1,1,1,45),( 2,1,1,70),( 3,1,1,105),( 4,1,1,150),( 5,1,1,215),( 6,1,1,295),( 7,1,1,425),( 8,1,1,875),( 9,1,1,1200),( 10,1,1,58),( 11,1,1,82),( 12,1,1,110),( 13,1,1,177),( 14,1,1,240),( 15,1,1,320),( 16,1,1,560),( 17,1,1,1040),( 18,1,1,1665),( 19,1,1,52),( 20,1,1,89),( 21,1,1,104),( 22,1,1,182),( 23,1,1,254),( 24,1,1,345),( 25,1,1,657),( 26,1,1,1053),( 27,1,1,1729),( 28,1,1,45),( 29,1,1,90),( 30,1,1,105),( 31,1,1,195),( 32,1,1,305),( 33,1,1,455),( 34,1,1,800),( 35,1,1,1275),( 36,1,1,2000),( 37,1,1,55),( 38,1,1,105),( 39,1,1,155),( 40,1,1,260),( 41,1,1,430),( 42,1,1,600),( 43,1,1,1000),( 44,1,1,1755),( 45,1,1,2665),( 46,1,1,72),( 47,1,1,104),( 48,1,1,156),( 49,1,1,330),( 50,1,1,540),( 51,1,1,930),( 52,1,1,1755),( 53,1,1,3550),( 54,1,1,5265),( 55,1,1,55),( 56,1,1,72),( 57,1,1,98),( 58,1,1,140),( 59,1,1,195),( 60,1,1,260),( 61,1,1,550),( 62,1,1,975),( 63,1,1,1160),( 64,1,1,23),( 65,1,1,30),( 66,1,1,33),( 67,1,1,39),( 68,1,1,40),( 69,1,1,45),( 70,1,1,145),( 71,1,1,155),( 72,1,1,295),( 73,1,1,52),( 74,1,1,85),( 75,1,1,120),( 76,1,1,185),( 77,1,1,265),( 78,1,1,435),( 79,1,1,70),( 80,1,1,90),( 81,1,1,105),( 82,1,1,125),( 83,1,1,150),( 84,1,1,165),( 85,1,1,180),( 86,1,1,200),( 87,1,1,235),( 88,1,1,245),( 89,1,1,305),( 90,1,1,310),( 91,1,1,325),( 92,1,1,340),( 93,1,1,345),( 94,1,1,525),( 95,1,1,535),( 96,1,1,545),( 97,1,1,585),( 98,1,1,620),( 99,1,1,670),( 100,1,1,730),( 101,1,1,820),( 102,1,1,1480),( 103,1,1,1550),( 104,1,1,1650),( 105,1,1,1820),( 106,1,1,104),( 107,1,1,145),( 108,1,1,155),( 109,1,1,210),( 110,1,1,245),( 111,1,1,255),( 112,1,1,305),( 113,1,1,340),( 114,1,1,350),( 115,1,1,405),( 116,1,1,645),( 117,1,1,650),( 118,1,1,665),( 119,1,1,670),( 120,1,1,675),( 121,1,1,1200),( 122,1,1,1220),( 123,1,1,1230),( 124,1,1,1255),( 125,1,1,1710),( 126,1,1,1790),( 127,1,1,1820),( 128,1,1,1835),( 129,1,1,2705),( 130,1,1,2840),( 131,1,1,2875),( 132,1,1,2940),( 133,1,1,130),( 134,1,1,135),( 135,1,1,105),( 136,1,1,130),( 137,1,1,165),( 138,1,1,200),( 139,1,1,295),( 140,1,1,240),( 141,1,1,275),( 142,1,1,350),( 143,1,1,190),( 144,1,1,220),( 145,1,1,145),( 146,1,1,25),( 147,1,1,35),( 148,1,1,45),( 149,1,1,240),( 150,1,1,295),( 151,1,1,405),( 152,1,1,1035),( 153,1,1,240),( 154,1,1,305),( 155,1,1,460),( 156,1,1,1000),( 157,1,1,275),( 158,1,1,395),( 159,1,1,615),( 160,1,1,1410),( 161,1,1,455),( 162,1,1,730),( 163,1,1,1620),( 164,1,1,255),( 165,1,1,460),( 166,1,1,645),( 167,1,1,1710),( 168,1,1,325),( 169,1,1,415),( 170,1,1,555),( 171,1,1,1515),( 172,1,1,325),( 173,1,1,435),( 174,1,1,690),( 175,1,1,1495),( 176,1,1,375),( 177,1,1,595),( 178,1,1,920),( 179,1,1,1785),( 180,1,1,505),( 181,1,1,740),( 182,1,1,2015),( 183,1,1,360),( 184,1,1,610),( 185,1,1,970),( 186,1,1,2140),</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,7 +4330,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C147" s="8">
         <v>1</v>
@@ -4290,7 +4343,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v>( 143,1,1,25)</v>
+        <v>( 146,1,1,25)</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,7 +4351,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C148" s="8">
         <v>1</v>
@@ -4311,7 +4364,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>( 144,1,1,35)</v>
+        <v>( 147,1,1,35)</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,7 +4372,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C149" s="8">
         <v>1</v>
@@ -4332,7 +4385,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>( 145,1,1,45)</v>
+        <v>( 148,1,1,45)</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,7 +4393,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C150" s="7">
         <v>1</v>
@@ -4353,7 +4406,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v>( 146,1,1,240)</v>
+        <v>( 149,1,1,240)</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4361,7 +4414,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C151" s="7">
         <v>1</v>
@@ -4374,7 +4427,7 @@
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v>( 147,1,1,295)</v>
+        <v>( 150,1,1,295)</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,7 +4435,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C152" s="7">
         <v>1</v>
@@ -4395,7 +4448,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v>( 148,1,1,405)</v>
+        <v>( 151,1,1,405)</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4403,7 +4456,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C153" s="7">
         <v>1</v>
@@ -4416,7 +4469,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v>( 149,1,1,1035)</v>
+        <v>( 152,1,1,1035)</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,7 +4477,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C154" s="8">
         <v>1</v>
@@ -4437,7 +4490,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>( 150,1,1,240)</v>
+        <v>( 153,1,1,240)</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,7 +4498,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C155" s="8">
         <v>1</v>
@@ -4458,7 +4511,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v>( 151,1,1,305)</v>
+        <v>( 154,1,1,305)</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,7 +4519,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C156" s="8">
         <v>1</v>
@@ -4479,7 +4532,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>( 152,1,1,460)</v>
+        <v>( 155,1,1,460)</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,7 +4540,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C157" s="8">
         <v>1</v>
@@ -4500,7 +4553,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v>( 153,1,1,1000)</v>
+        <v>( 156,1,1,1000)</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4508,7 +4561,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C158" s="7">
         <v>1</v>
@@ -4521,7 +4574,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>( 154,1,1,275)</v>
+        <v>( 157,1,1,275)</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4529,7 +4582,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
@@ -4542,7 +4595,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v>( 155,1,1,395)</v>
+        <v>( 158,1,1,395)</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4550,7 +4603,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C160" s="7">
         <v>1</v>
@@ -4563,7 +4616,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v>( 156,1,1,615)</v>
+        <v>( 159,1,1,615)</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4571,7 +4624,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -4584,7 +4637,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v>( 157,1,1,1410)</v>
+        <v>( 160,1,1,1410)</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4592,7 +4645,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C162" s="8">
         <v>1</v>
@@ -4605,7 +4658,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v>( 158,1,1,455)</v>
+        <v>( 161,1,1,455)</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4613,7 +4666,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C163" s="8">
         <v>1</v>
@@ -4626,7 +4679,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v>( 159,1,1,730)</v>
+        <v>( 162,1,1,730)</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4634,7 +4687,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C164" s="8">
         <v>1</v>
@@ -4647,7 +4700,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v>( 160,1,1,1620)</v>
+        <v>( 163,1,1,1620)</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4655,7 +4708,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
@@ -4668,7 +4721,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v>( 161,1,1,255)</v>
+        <v>( 164,1,1,255)</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,7 +4729,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C166" s="7">
         <v>1</v>
@@ -4689,7 +4742,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v>( 162,1,1,460)</v>
+        <v>( 165,1,1,460)</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,7 +4750,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C167" s="7">
         <v>1</v>
@@ -4710,7 +4763,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v>( 163,1,1,645)</v>
+        <v>( 166,1,1,645)</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,7 +4771,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
@@ -4731,7 +4784,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v>( 164,1,1,1710)</v>
+        <v>( 167,1,1,1710)</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,7 +4792,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C169" s="8">
         <v>1</v>
@@ -4752,7 +4805,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v>( 165,1,1,325)</v>
+        <v>( 168,1,1,325)</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,7 +4813,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C170" s="8">
         <v>1</v>
@@ -4773,7 +4826,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v>( 166,1,1,415)</v>
+        <v>( 169,1,1,415)</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,7 +4834,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C171" s="8">
         <v>1</v>
@@ -4794,7 +4847,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v>( 167,1,1,555)</v>
+        <v>( 170,1,1,555)</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4802,7 +4855,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C172" s="8">
         <v>1</v>
@@ -4815,7 +4868,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v>( 168,1,1,1515)</v>
+        <v>( 171,1,1,1515)</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,7 +4876,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="7">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C173" s="7">
         <v>1</v>
@@ -4836,7 +4889,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v>( 169,1,1,325)</v>
+        <v>( 172,1,1,325)</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,7 +4897,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C174" s="7">
         <v>1</v>
@@ -4857,7 +4910,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v>( 170,1,1,435)</v>
+        <v>( 173,1,1,435)</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,7 +4918,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
@@ -4878,7 +4931,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
-        <v>( 171,1,1,690)</v>
+        <v>( 174,1,1,690)</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,7 +4939,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="7">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C176" s="7">
         <v>1</v>
@@ -4899,7 +4952,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
-        <v>( 172,1,1,1495)</v>
+        <v>( 175,1,1,1495)</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4907,7 +4960,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C177" s="8">
         <v>1</v>
@@ -4920,7 +4973,7 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
-        <v>( 173,1,1,375)</v>
+        <v>( 176,1,1,375)</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4928,7 +4981,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C178" s="8">
         <v>1</v>
@@ -4941,7 +4994,7 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
-        <v>( 174,1,1,595)</v>
+        <v>( 177,1,1,595)</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4949,7 +5002,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C179" s="8">
         <v>1</v>
@@ -4962,7 +5015,7 @@
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
-        <v>( 175,1,1,920)</v>
+        <v>( 178,1,1,920)</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,7 +5023,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C180" s="8">
         <v>1</v>
@@ -4983,7 +5036,7 @@
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
-        <v>( 176,1,1,1785)</v>
+        <v>( 179,1,1,1785)</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,7 +5044,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="7">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C181" s="7">
         <v>1</v>
@@ -5004,7 +5057,7 @@
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
-        <v>( 177,1,1,505)</v>
+        <v>( 180,1,1,505)</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,7 +5065,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C182" s="7">
         <v>1</v>
@@ -5025,7 +5078,7 @@
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
-        <v>( 178,1,1,740)</v>
+        <v>( 181,1,1,740)</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5033,7 +5086,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="7">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
@@ -5046,7 +5099,7 @@
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
-        <v>( 179,1,1,2015)</v>
+        <v>( 182,1,1,2015)</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5054,7 +5107,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C184" s="8">
         <v>1</v>
@@ -5067,7 +5120,7 @@
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
-        <v>( 180,1,1,360)</v>
+        <v>( 183,1,1,360)</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,7 +5128,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C185" s="8">
         <v>1</v>
@@ -5088,7 +5141,7 @@
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
-        <v>( 181,1,1,610)</v>
+        <v>( 184,1,1,610)</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5096,7 +5149,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C186" s="8">
         <v>1</v>
@@ -5109,7 +5162,7 @@
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
-        <v>( 182,1,1,970)</v>
+        <v>( 185,1,1,970)</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5117,7 +5170,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C187" s="8">
         <v>1</v>
@@ -5130,64 +5183,12 @@
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
-        <v>( 183,1,1,2140)</v>
+        <v>( 186,1,1,2140)</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5080C84-6ABE-457E-87B7-DB4E7284B1BF}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
-        <v>"2022.03.14"</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>_xlfn.CONCAT( "(",C2,")")</f>
-        <v>("2022.03.14")</v>
-      </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">_xlfn.CONCAT("INSERT INTO plum_pipe_end_type (plum_pipe_end_type) VALUES",(TRANSPOSE(D2:D3)&amp;","))</f>
-        <v>INSERT INTO plum_pipe_end_type (plum_pipe_end_type) VALUES("2022.03.14"),,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5195,7 +5196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD89E6EC-8F15-4548-81F8-F39FFF15A66D}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C19" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6058,7 +6059,7 @@
         <v>"Unplasticized poly (vinyl chloride) pipes for water supply and for buried and above ground drainage and sewerage under pressure"</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>_xlfn.CONCAT( "(",D2,", ", E2,")")</f>
+        <f t="shared" ref="F2:F7" si="1">_xlfn.CONCAT( "(",D2,", ", E2,")")</f>
         <v>("SLS 147:2013 ", "Unplasticized poly (vinyl chloride) pipes for water supply and for buried and above ground drainage and sewerage under pressure")</v>
       </c>
       <c r="G2" s="4" t="str" cm="1">
@@ -6086,7 +6087,7 @@
         <v>"Unplasticized poly (vinyl chloride) fittings for water supply and for buried and above ground drainage and sewerage under pressure"</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F7" si="1">_xlfn.CONCAT( "(",D3,", ", E3,")")</f>
+        <f t="shared" si="1"/>
         <v>("SLS 659:2015", "Unplasticized poly (vinyl chloride) fittings for water supply and for buried and above ground drainage and sewerage under pressure")</v>
       </c>
     </row>
@@ -6194,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B7B677-6731-4EA9-B8E3-96DD5E4F6E11}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6327,11 +6328,11 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ref="D6:D7" si="2">_xlfn.CONCAT(""""&amp;B6&amp;"""")</f>
+        <f>_xlfn.CONCAT(""""&amp;B6&amp;"""")</f>
         <v>" uPVC PN 12.5 - Fitting"</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E8" si="3">_xlfn.CONCAT(""""&amp;C6&amp;"""")</f>
+        <f>_xlfn.CONCAT(""""&amp;C6&amp;"""")</f>
         <v>"2"</v>
       </c>
       <c r="F6" s="4" t="str">
@@ -6350,11 +6351,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(""""&amp;B7&amp;"""")</f>
         <v>" uPVC PNT 7"</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(""""&amp;C7&amp;"""")</f>
         <v>"1"</v>
       </c>
       <c r="F7" s="4" t="str">
@@ -6373,11 +6374,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D14" si="4">_xlfn.CONCAT(""""&amp;B8&amp;"""")</f>
+        <f t="shared" ref="D8:D14" si="2">_xlfn.CONCAT(""""&amp;B8&amp;"""")</f>
         <v>" uPVC CLASS 4.0 "</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(""""&amp;C8&amp;"""")</f>
         <v>"3"</v>
       </c>
       <c r="F8" s="4" t="str">
@@ -6396,11 +6397,11 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>" uPVCCLASS 2.5"</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9:E14" si="5">_xlfn.CONCAT(""""&amp;C9&amp;"""")</f>
+        <f t="shared" ref="E9:E14" si="3">_xlfn.CONCAT(""""&amp;C9&amp;"""")</f>
         <v>"3"</v>
       </c>
       <c r="F9" s="4" t="str">
@@ -6419,11 +6420,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>"uPVC Drainage - fittings"</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>"3"</v>
       </c>
       <c r="F10" s="4" t="str">
@@ -6442,11 +6443,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>"uPVC Drainage (special) SS"</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>"4"</v>
       </c>
       <c r="F11" s="4" t="str">
@@ -6465,11 +6466,11 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>"Tube Well Pipe SS"</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>"5"</v>
       </c>
       <c r="F12" s="4" t="str">
@@ -6488,11 +6489,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>"Irrigation Pipe SS"</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>"5"</v>
       </c>
       <c r="F13" s="4" t="str">
@@ -6511,11 +6512,11 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>"CPVC"</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>"6"</v>
       </c>
       <c r="F14" s="4" t="str">
@@ -7632,11 +7633,11 @@
         <v>113</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
+        <f t="shared" ref="C2:C7" si="0">_xlfn.CONCAT(""""&amp;B2&amp;"""")</f>
         <v>"Pressure pipes"</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>_xlfn.CONCAT( "(",C2,")")</f>
+        <f t="shared" ref="D2:D7" si="1">_xlfn.CONCAT( "(",C2,")")</f>
         <v>("Pressure pipes")</v>
       </c>
       <c r="E2" t="str" cm="1">
@@ -7652,11 +7653,11 @@
         <v>114</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C7" si="0">_xlfn.CONCAT(""""&amp;B3&amp;"""")</f>
+        <f t="shared" si="0"/>
         <v>"Pressure fittings"</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D7" si="1">_xlfn.CONCAT( "(",C3,")")</f>
+        <f t="shared" si="1"/>
         <v>("Pressure fittings")</v>
       </c>
     </row>
@@ -7684,7 +7685,7 @@
         <v>208</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>_xlfn.CONCAT(""""&amp;B5&amp;"""")</f>
+        <f t="shared" si="0"/>
         <v>"Sewerage and Waste Fittings"</v>
       </c>
       <c r="D5" s="1" t="str">
@@ -7736,8 +7737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8B51A4-0C2E-4883-BC0A-528D5C113E23}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7784,12 +7785,12 @@
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,")")</f>
+        <f t="shared" ref="F2:F33" si="0">_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,")")</f>
         <v>(1, 1, 2, 2)</v>
       </c>
       <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES",(TRANSPOSE(F2:F176)&amp;","))</f>
-        <v>INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES(1, 1, 2, 2),(1, 2, 4, 2),(1, 3, 4, 2),(1, 4, 4, 2),(1, 5, 4, 2),(1, 6, 4, 2),(1, 7, 4, 2),(1, 8, 4, 2),(1, 9, 4, 2),(2, 1, 2, 2),(2, 2, 4, 2),(2, 3, 4, 2),(2, 4, 4, 2),(2, 5, 4, 2),(2, 6, 4, 2),(2, 7, 4, 2),(2, 8, 4, 2),(2, 9, 4, 2),(3, 1, 2, 2),(3, 2, 4, 2),(3, 3, 4, 2),(3, 4, 4, 2),(3, 5, 4, 2),(3, 6, 4, 2),(3, 7, 4, 2),(3, 8, 4, 2),(3, 9, 4, 2),(4, 1, 2, 2),(4, 2, 4, 2),(4, 3, 4, 2),(4, 4, 4, 2),(4, 5, 4, 2),(4, 6, 4, 2),(4, 7, 4, 2),(4, 8, 4, 2),(4, 9, 4, 2),(5, 1, 2, 2),(5, 2, 4, 2),(5, 3, 4, 2),(5, 4, 4, 2),(5, 5, 4, 2),(5, 6, 4, 2),(5, 7, 4, 2),(5, 8, 4, 2),(5, 9, 4, 2),(6, 1, 2, 2),(6, 2, 4, 2),(6, 3, 4, 2),(6, 4, 4, 2),(6, 5, 4, 2),(6, 6, 4, 2),(6, 7, 4, 2),(6, 8, 4, 2),(6, 9, 4, 2),(7, 1, 2, 2),(7, 2, 4, 2),(7, 3, 4, 2),(7, 4, 4, 2),(7, 5, 4, 2),(7, 6, 4, 2),(7, 7, 4, 2),(7, 8, 4, 2),(7, 9, 4, 2),(8, 1, 2, 2),(8, 2, 4, 2),(8, 3, 4, 2),(8, 4, 4, 2),(8, 5, 4, 2),(8, 6, 4, 2),(8, 7, 4, 2),(8, 8, 4, 2),(8, 9, 4, 2),(9, 1, 2, 2),(9, 2, 4, 2),(9, 3, 4, 2),(9, 4, 4, 2),(9, 5, 4, 2),(9, 6, 4, 2),(10, 10, 4, 2),(10, 11, 4, 2),(10, 12, 4, 2),(10, 13, 4, 2),(10, 14, 4, 2),(10, 15, 4, 2),(10, 16, 4, 2),(10, 17, 4, 2),(10, 18, 4, 2),(10, 19, 4, 2),(10, 20, 4, 2),(10, 21, 4, 2),(10, 22, 4, 2),(10, 23, 4, 2),(10, 24, 4, 2),(10, 25, 4, 2),(10, 26, 4, 2),(10, 27, 4, 2),(10, 28, 4, 2),(10, 29, 4, 2),(10, 30, 4, 2),(10, 31, 4, 2),(10, 32, 4, 2),(10, 33, 4, 2),(10, 34, 4, 2),(10, 35, 4, 2),(10, 36, 4, 2),(11, 10, 4, 2),(11, 11, 4, 2),(11, 12, 4, 2),(11, 13, 4, 2),(11, 14, 4, 2),(11, 15, 4, 2),(11, 16, 4, 2),(11, 17, 4, 2),(11, 18, 4, 2),(11, 19, 4, 2),(11, 20, 4, 2),(11, 21, 4, 2),(11, 22, 4, 2),(11, 23, 4, 2),(11, 24, 4, 2),(11, 25, 4, 2),(11, 26, 4, 2),(11, 27, 4, 2),(11, 28, 4, 2),(11, 29, 4, 2),(11, 30, 4, 2),(11, 31, 4, 2),(11, 32, 4, 2),(11, 33, 4, 2),(11, 34, 4, 2),(11, 35, 4, 2),(11, 36, 4, 2),(12, 10, 4, 2),(13, 11, 4, 2),(14, 1, 2, 2),(15, 1, 2, 2),(16, 1, 2, 2),(17, 1, 2, 2),(18, 1, 2, 2),(19, 10, 4, 2),(20, 10, 4, 2),(21, 11, 4, 2),(22, 10, 5, 2),(22, 11, 5, 2),(20, 10, 5, 2),(23, 1, 2, 2),(23, 2, 4, 2),(23, 3, 4, 2),(9, 4, 9, 4),(9, 5, 9, 4),(9, 6, 9, 4),(9, 9, 9, 4),(6, 4, 9, 4),(6, 5, 9, 4),(6, 6, 9, 4),(6, 9, 9, 4),(5, 4, 9, 4),(5, 5, 9, 4),(5, 6, 9, 4),(5, 9, 9, 4),(22, 4, 9, 4),(22, 5, 9, 4),(22, 9, 9, 4),(23, 4, 9, 4),(23, 5, 9, 4),(23, 6, 9, 4),(23, 9, 9, 4),(24, 4, 9, 4),(24, 5, 9, 4),(24, 6, 9, 4),(24, 9, 9, 4),(25, 4, 9, 4),(25, 5, 9, 4),(25, 6, 9, 4),(25, 9, 9, 4),</v>
+        <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES",(TRANSPOSE(F2:F187)&amp;","))</f>
+        <v>INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES(1, 1, 2, 2),(1, 2, 4, 2),(1, 3, 4, 2),(1, 4, 4, 2),(1, 5, 4, 2),(1, 6, 4, 2),(1, 7, 4, 2),(1, 8, 4, 2),(1, 9, 4, 2),(2, 1, 2, 2),(2, 2, 4, 2),(2, 3, 4, 2),(2, 4, 4, 2),(2, 5, 4, 2),(2, 6, 4, 2),(2, 7, 4, 2),(2, 8, 4, 2),(2, 9, 4, 2),(3, 1, 2, 2),(3, 2, 4, 2),(3, 3, 4, 2),(3, 4, 4, 2),(3, 5, 4, 2),(3, 6, 4, 2),(3, 7, 4, 2),(3, 8, 4, 2),(3, 9, 4, 2),(4, 1, 2, 2),(4, 2, 4, 2),(4, 3, 4, 2),(4, 4, 4, 2),(4, 5, 4, 2),(4, 6, 4, 2),(4, 7, 4, 2),(4, 8, 4, 2),(4, 9, 4, 2),(5, 1, 2, 2),(5, 2, 4, 2),(5, 3, 4, 2),(5, 4, 4, 2),(5, 5, 4, 2),(5, 6, 4, 2),(5, 7, 4, 2),(5, 8, 4, 2),(5, 9, 4, 2),(6, 1, 2, 2),(6, 2, 4, 2),(6, 3, 4, 2),(6, 4, 4, 2),(6, 5, 4, 2),(6, 6, 4, 2),(6, 7, 4, 2),(6, 8, 4, 2),(6, 9, 4, 2),(7, 1, 2, 2),(7, 2, 4, 2),(7, 3, 4, 2),(7, 4, 4, 2),(7, 5, 4, 2),(7, 6, 4, 2),(7, 7, 4, 2),(7, 8, 4, 2),(7, 9, 4, 2),(8, 1, 2, 2),(8, 2, 4, 2),(8, 3, 4, 2),(8, 4, 4, 2),(8, 5, 4, 2),(8, 6, 4, 2),(8, 7, 4, 2),(8, 8, 4, 2),(8, 9, 4, 2),(9, 1, 2, 2),(9, 2, 4, 2),(9, 3, 4, 2),(9, 4, 4, 2),(9, 5, 4, 2),(9, 6, 4, 2),(10, 10, 4, 2),(10, 11, 4, 2),(10, 12, 4, 2),(10, 13, 4, 2),(10, 14, 4, 2),(10, 15, 4, 2),(10, 16, 4, 2),(10, 17, 4, 2),(10, 18, 4, 2),(10, 19, 4, 2),(10, 20, 4, 2),(10, 21, 4, 2),(10, 22, 4, 2),(10, 23, 4, 2),(10, 24, 4, 2),(10, 25, 4, 2),(10, 26, 4, 2),(10, 27, 4, 2),(10, 28, 4, 2),(10, 29, 4, 2),(10, 30, 4, 2),(10, 31, 4, 2),(10, 32, 4, 2),(10, 33, 4, 2),(10, 34, 4, 2),(10, 35, 4, 2),(10, 36, 4, 2),(11, 10, 4, 2),(11, 11, 4, 2),(11, 12, 4, 2),(11, 13, 4, 2),(11, 14, 4, 2),(11, 15, 4, 2),(11, 16, 4, 2),(11, 17, 4, 2),(11, 18, 4, 2),(11, 19, 4, 2),(11, 20, 4, 2),(11, 21, 4, 2),(11, 22, 4, 2),(11, 23, 4, 2),(11, 24, 4, 2),(11, 25, 4, 2),(11, 26, 4, 2),(11, 27, 4, 2),(11, 28, 4, 2),(11, 29, 4, 2),(11, 30, 4, 2),(11, 31, 4, 2),(11, 32, 4, 2),(11, 33, 4, 2),(11, 34, 4, 2),(11, 35, 4, 2),(11, 36, 4, 2),(12, 10, 4, 2),(13, 11, 4, 2),(14, 1, 2, 2),(15, 1, 2, 2),(16, 1, 2, 2),(17, 1, 2, 2),(18, 1, 2, 2),(19, 10, 4, 2),(20, 10, 4, 2),(21, 11, 4, 2),(22, 10, 5, 2),(22, 11, 5, 2),(20, 10, 5, 2),(23, 1, 2, 2),(23, 2, 4, 2),(23, 3, 4, 2),(9, 4, 9, 4),(9, 5, 9, 4),(9, 6, 9, 4),(9, 9, 9, 4),(6, 4, 9, 4),(6, 5, 9, 4),(6, 6, 9, 4),(6, 9, 9, 4),(5, 4, 9, 4),(5, 5, 9, 4),(5, 6, 9, 4),(5, 9, 9, 4),(22, 4, 9, 4),(22, 5, 9, 4),(22, 9, 9, 4),(23, 4, 9, 4),(23, 5, 9, 4),(23, 6, 9, 4),(23, 9, 9, 4),(24, 4, 9, 4),(24, 5, 9, 4),(24, 6, 9, 4),(24, 9, 9, 4),(25, 4, 9, 4),(25, 5, 9, 4),(25, 6, 9, 4),(25, 9, 9, 4),(26, 4, 9, 4),(26, 5, 9, 4),(26, 6, 9, 4),(26, 9, 9, 4),(27, 4, 9, 4),(27, 5, 9, 4),(27, 9, 9, 4),(28, 4, 9, 4),(28, 5, 9, 4),(28, 6, 9, 4),(28, 9, 9, 4),</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7809,7 +7810,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f>_xlfn.CONCAT( "(",B3,", ", C3,", ", D3,", ", E3,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 2, 4, 2)</v>
       </c>
     </row>
@@ -7830,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="str">
-        <f>_xlfn.CONCAT( "(",B4,", ", C4,", ", D4,", ", E4,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 3, 4, 2)</v>
       </c>
     </row>
@@ -7851,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.CONCAT( "(",B5,", ", C5,", ", D5,", ", E5,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 4, 4, 2)</v>
       </c>
     </row>
@@ -7872,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="str">
-        <f>_xlfn.CONCAT( "(",B6,", ", C6,", ", D6,", ", E6,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 5, 4, 2)</v>
       </c>
     </row>
@@ -7893,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="str">
-        <f>_xlfn.CONCAT( "(",B7,", ", C7,", ", D7,", ", E7,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 6, 4, 2)</v>
       </c>
     </row>
@@ -7914,7 +7915,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="str">
-        <f>_xlfn.CONCAT( "(",B8,", ", C8,", ", D8,", ", E8,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 7, 4, 2)</v>
       </c>
     </row>
@@ -7935,7 +7936,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="str">
-        <f>_xlfn.CONCAT( "(",B9,", ", C9,", ", D9,", ", E9,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 8, 4, 2)</v>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="str">
-        <f>_xlfn.CONCAT( "(",B10,", ", C10,", ", D10,", ", E10,")")</f>
+        <f t="shared" si="0"/>
         <v>(1, 9, 4, 2)</v>
       </c>
     </row>
@@ -7977,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="str">
-        <f>_xlfn.CONCAT( "(",B11,", ", C11,", ", D11,", ", E11,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 1, 2, 2)</v>
       </c>
     </row>
@@ -7998,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="str">
-        <f>_xlfn.CONCAT( "(",B12,", ", C12,", ", D12,", ", E12,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 2, 4, 2)</v>
       </c>
     </row>
@@ -8019,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="str">
-        <f>_xlfn.CONCAT( "(",B13,", ", C13,", ", D13,", ", E13,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 3, 4, 2)</v>
       </c>
     </row>
@@ -8040,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="str">
-        <f>_xlfn.CONCAT( "(",B14,", ", C14,", ", D14,", ", E14,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 4, 4, 2)</v>
       </c>
     </row>
@@ -8061,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f>_xlfn.CONCAT( "(",B15,", ", C15,", ", D15,", ", E15,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 5, 4, 2)</v>
       </c>
     </row>
@@ -8082,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="str">
-        <f>_xlfn.CONCAT( "(",B16,", ", C16,", ", D16,", ", E16,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 6, 4, 2)</v>
       </c>
     </row>
@@ -8103,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="str">
-        <f>_xlfn.CONCAT( "(",B17,", ", C17,", ", D17,", ", E17,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 7, 4, 2)</v>
       </c>
     </row>
@@ -8124,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="str">
-        <f>_xlfn.CONCAT( "(",B18,", ", C18,", ", D18,", ", E18,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 8, 4, 2)</v>
       </c>
     </row>
@@ -8145,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="str">
-        <f>_xlfn.CONCAT( "(",B19,", ", C19,", ", D19,", ", E19,")")</f>
+        <f t="shared" si="0"/>
         <v>(2, 9, 4, 2)</v>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="str">
-        <f>_xlfn.CONCAT( "(",B20,", ", C20,", ", D20,", ", E20,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 1, 2, 2)</v>
       </c>
     </row>
@@ -8187,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="str">
-        <f>_xlfn.CONCAT( "(",B21,", ", C21,", ", D21,", ", E21,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 2, 4, 2)</v>
       </c>
     </row>
@@ -8208,7 +8209,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="str">
-        <f>_xlfn.CONCAT( "(",B22,", ", C22,", ", D22,", ", E22,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 3, 4, 2)</v>
       </c>
     </row>
@@ -8229,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="str">
-        <f>_xlfn.CONCAT( "(",B23,", ", C23,", ", D23,", ", E23,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 4, 4, 2)</v>
       </c>
     </row>
@@ -8250,7 +8251,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="str">
-        <f>_xlfn.CONCAT( "(",B24,", ", C24,", ", D24,", ", E24,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 5, 4, 2)</v>
       </c>
     </row>
@@ -8271,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="str">
-        <f>_xlfn.CONCAT( "(",B25,", ", C25,", ", D25,", ", E25,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 6, 4, 2)</v>
       </c>
     </row>
@@ -8292,7 +8293,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="str">
-        <f>_xlfn.CONCAT( "(",B26,", ", C26,", ", D26,", ", E26,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 7, 4, 2)</v>
       </c>
     </row>
@@ -8313,7 +8314,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="str">
-        <f>_xlfn.CONCAT( "(",B27,", ", C27,", ", D27,", ", E27,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 8, 4, 2)</v>
       </c>
     </row>
@@ -8334,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="str">
-        <f>_xlfn.CONCAT( "(",B28,", ", C28,", ", D28,", ", E28,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 9, 4, 2)</v>
       </c>
     </row>
@@ -8355,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="str">
-        <f>_xlfn.CONCAT( "(",B29,", ", C29,", ", D29,", ", E29,")")</f>
+        <f t="shared" si="0"/>
         <v>(4, 1, 2, 2)</v>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="str">
-        <f>_xlfn.CONCAT( "(",B30,", ", C30,", ", D30,", ", E30,")")</f>
+        <f t="shared" si="0"/>
         <v>(4, 2, 4, 2)</v>
       </c>
     </row>
@@ -8397,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="str">
-        <f>_xlfn.CONCAT( "(",B31,", ", C31,", ", D31,", ", E31,")")</f>
+        <f t="shared" si="0"/>
         <v>(4, 3, 4, 2)</v>
       </c>
     </row>
@@ -8418,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="str">
-        <f>_xlfn.CONCAT( "(",B32,", ", C32,", ", D32,", ", E32,")")</f>
+        <f t="shared" si="0"/>
         <v>(4, 4, 4, 2)</v>
       </c>
     </row>
@@ -8439,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="str">
-        <f>_xlfn.CONCAT( "(",B33,", ", C33,", ", D33,", ", E33,")")</f>
+        <f t="shared" si="0"/>
         <v>(4, 5, 4, 2)</v>
       </c>
     </row>
@@ -8460,7 +8461,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="str">
-        <f>_xlfn.CONCAT( "(",B34,", ", C34,", ", D34,", ", E34,")")</f>
+        <f t="shared" ref="F34:F65" si="1">_xlfn.CONCAT( "(",B34,", ", C34,", ", D34,", ", E34,")")</f>
         <v>(4, 6, 4, 2)</v>
       </c>
     </row>
@@ -8481,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="str">
-        <f>_xlfn.CONCAT( "(",B35,", ", C35,", ", D35,", ", E35,")")</f>
+        <f t="shared" si="1"/>
         <v>(4, 7, 4, 2)</v>
       </c>
     </row>
@@ -8502,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="str">
-        <f>_xlfn.CONCAT( "(",B36,", ", C36,", ", D36,", ", E36,")")</f>
+        <f t="shared" si="1"/>
         <v>(4, 8, 4, 2)</v>
       </c>
     </row>
@@ -8523,7 +8524,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="str">
-        <f>_xlfn.CONCAT( "(",B37,", ", C37,", ", D37,", ", E37,")")</f>
+        <f t="shared" si="1"/>
         <v>(4, 9, 4, 2)</v>
       </c>
     </row>
@@ -8544,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="str">
-        <f>_xlfn.CONCAT( "(",B38,", ", C38,", ", D38,", ", E38,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 1, 2, 2)</v>
       </c>
     </row>
@@ -8565,7 +8566,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f>_xlfn.CONCAT( "(",B39,", ", C39,", ", D39,", ", E39,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 2, 4, 2)</v>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="str">
-        <f>_xlfn.CONCAT( "(",B40,", ", C40,", ", D40,", ", E40,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 3, 4, 2)</v>
       </c>
     </row>
@@ -8607,7 +8608,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="str">
-        <f>_xlfn.CONCAT( "(",B41,", ", C41,", ", D41,", ", E41,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 4, 4, 2)</v>
       </c>
     </row>
@@ -8628,7 +8629,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="str">
-        <f>_xlfn.CONCAT( "(",B42,", ", C42,", ", D42,", ", E42,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 5, 4, 2)</v>
       </c>
     </row>
@@ -8649,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="str">
-        <f>_xlfn.CONCAT( "(",B43,", ", C43,", ", D43,", ", E43,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 6, 4, 2)</v>
       </c>
     </row>
@@ -8670,7 +8671,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="str">
-        <f>_xlfn.CONCAT( "(",B44,", ", C44,", ", D44,", ", E44,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 7, 4, 2)</v>
       </c>
     </row>
@@ -8691,7 +8692,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="str">
-        <f>_xlfn.CONCAT( "(",B45,", ", C45,", ", D45,", ", E45,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 8, 4, 2)</v>
       </c>
     </row>
@@ -8712,7 +8713,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="str">
-        <f>_xlfn.CONCAT( "(",B46,", ", C46,", ", D46,", ", E46,")")</f>
+        <f t="shared" si="1"/>
         <v>(5, 9, 4, 2)</v>
       </c>
     </row>
@@ -8733,7 +8734,7 @@
         <v>2</v>
       </c>
       <c r="F47" t="str">
-        <f>_xlfn.CONCAT( "(",B47,", ", C47,", ", D47,", ", E47,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 1, 2, 2)</v>
       </c>
     </row>
@@ -8754,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="str">
-        <f>_xlfn.CONCAT( "(",B48,", ", C48,", ", D48,", ", E48,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 2, 4, 2)</v>
       </c>
     </row>
@@ -8775,7 +8776,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="str">
-        <f>_xlfn.CONCAT( "(",B49,", ", C49,", ", D49,", ", E49,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 3, 4, 2)</v>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="str">
-        <f>_xlfn.CONCAT( "(",B50,", ", C50,", ", D50,", ", E50,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 4, 4, 2)</v>
       </c>
     </row>
@@ -8817,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="str">
-        <f>_xlfn.CONCAT( "(",B51,", ", C51,", ", D51,", ", E51,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 5, 4, 2)</v>
       </c>
     </row>
@@ -8838,7 +8839,7 @@
         <v>2</v>
       </c>
       <c r="F52" t="str">
-        <f>_xlfn.CONCAT( "(",B52,", ", C52,", ", D52,", ", E52,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 6, 4, 2)</v>
       </c>
     </row>
@@ -8859,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="F53" t="str">
-        <f>_xlfn.CONCAT( "(",B53,", ", C53,", ", D53,", ", E53,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 7, 4, 2)</v>
       </c>
     </row>
@@ -8880,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="str">
-        <f>_xlfn.CONCAT( "(",B54,", ", C54,", ", D54,", ", E54,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 8, 4, 2)</v>
       </c>
     </row>
@@ -8901,7 +8902,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="str">
-        <f>_xlfn.CONCAT( "(",B55,", ", C55,", ", D55,", ", E55,")")</f>
+        <f t="shared" si="1"/>
         <v>(6, 9, 4, 2)</v>
       </c>
     </row>
@@ -8922,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="F56" t="str">
-        <f>_xlfn.CONCAT( "(",B56,", ", C56,", ", D56,", ", E56,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 1, 2, 2)</v>
       </c>
     </row>
@@ -8943,7 +8944,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="str">
-        <f>_xlfn.CONCAT( "(",B57,", ", C57,", ", D57,", ", E57,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 2, 4, 2)</v>
       </c>
     </row>
@@ -8964,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="str">
-        <f>_xlfn.CONCAT( "(",B58,", ", C58,", ", D58,", ", E58,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 3, 4, 2)</v>
       </c>
     </row>
@@ -8985,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="F59" t="str">
-        <f>_xlfn.CONCAT( "(",B59,", ", C59,", ", D59,", ", E59,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 4, 4, 2)</v>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="F60" t="str">
-        <f>_xlfn.CONCAT( "(",B60,", ", C60,", ", D60,", ", E60,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 5, 4, 2)</v>
       </c>
     </row>
@@ -9027,7 +9028,7 @@
         <v>2</v>
       </c>
       <c r="F61" t="str">
-        <f>_xlfn.CONCAT( "(",B61,", ", C61,", ", D61,", ", E61,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 6, 4, 2)</v>
       </c>
     </row>
@@ -9048,7 +9049,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="str">
-        <f>_xlfn.CONCAT( "(",B62,", ", C62,", ", D62,", ", E62,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 7, 4, 2)</v>
       </c>
     </row>
@@ -9069,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="F63" t="str">
-        <f>_xlfn.CONCAT( "(",B63,", ", C63,", ", D63,", ", E63,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 8, 4, 2)</v>
       </c>
     </row>
@@ -9090,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="F64" t="str">
-        <f>_xlfn.CONCAT( "(",B64,", ", C64,", ", D64,", ", E64,")")</f>
+        <f t="shared" si="1"/>
         <v>(7, 9, 4, 2)</v>
       </c>
     </row>
@@ -9111,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="str">
-        <f>_xlfn.CONCAT( "(",B65,", ", C65,", ", D65,", ", E65,")")</f>
+        <f t="shared" si="1"/>
         <v>(8, 1, 2, 2)</v>
       </c>
     </row>
@@ -9132,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="F66" t="str">
-        <f>_xlfn.CONCAT( "(",B66,", ", C66,", ", D66,", ", E66,")")</f>
+        <f t="shared" ref="F66:F97" si="2">_xlfn.CONCAT( "(",B66,", ", C66,", ", D66,", ", E66,")")</f>
         <v>(8, 2, 4, 2)</v>
       </c>
     </row>
@@ -9153,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="str">
-        <f>_xlfn.CONCAT( "(",B67,", ", C67,", ", D67,", ", E67,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 3, 4, 2)</v>
       </c>
     </row>
@@ -9174,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="F68" t="str">
-        <f>_xlfn.CONCAT( "(",B68,", ", C68,", ", D68,", ", E68,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 4, 4, 2)</v>
       </c>
     </row>
@@ -9195,7 +9196,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="str">
-        <f>_xlfn.CONCAT( "(",B69,", ", C69,", ", D69,", ", E69,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 5, 4, 2)</v>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="str">
-        <f>_xlfn.CONCAT( "(",B70,", ", C70,", ", D70,", ", E70,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 6, 4, 2)</v>
       </c>
     </row>
@@ -9237,7 +9238,7 @@
         <v>2</v>
       </c>
       <c r="F71" t="str">
-        <f>_xlfn.CONCAT( "(",B71,", ", C71,", ", D71,", ", E71,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 7, 4, 2)</v>
       </c>
     </row>
@@ -9258,7 +9259,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="str">
-        <f>_xlfn.CONCAT( "(",B72,", ", C72,", ", D72,", ", E72,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 8, 4, 2)</v>
       </c>
     </row>
@@ -9279,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="str">
-        <f>_xlfn.CONCAT( "(",B73,", ", C73,", ", D73,", ", E73,")")</f>
+        <f t="shared" si="2"/>
         <v>(8, 9, 4, 2)</v>
       </c>
     </row>
@@ -9300,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="F74" t="str">
-        <f>_xlfn.CONCAT( "(",B74,", ", C74,", ", D74,", ", E74,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 1, 2, 2)</v>
       </c>
     </row>
@@ -9321,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="str">
-        <f>_xlfn.CONCAT( "(",B75,", ", C75,", ", D75,", ", E75,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 2, 4, 2)</v>
       </c>
     </row>
@@ -9342,7 +9343,7 @@
         <v>2</v>
       </c>
       <c r="F76" t="str">
-        <f>_xlfn.CONCAT( "(",B76,", ", C76,", ", D76,", ", E76,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 3, 4, 2)</v>
       </c>
     </row>
@@ -9363,7 +9364,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="str">
-        <f>_xlfn.CONCAT( "(",B77,", ", C77,", ", D77,", ", E77,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 4, 4, 2)</v>
       </c>
     </row>
@@ -9384,7 +9385,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="str">
-        <f>_xlfn.CONCAT( "(",B78,", ", C78,", ", D78,", ", E78,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 5, 4, 2)</v>
       </c>
     </row>
@@ -9405,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="F79" t="str">
-        <f>_xlfn.CONCAT( "(",B79,", ", C79,", ", D79,", ", E79,")")</f>
+        <f t="shared" si="2"/>
         <v>(9, 6, 4, 2)</v>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="F80" t="str">
-        <f>_xlfn.CONCAT( "(",B80,", ", C80,", ", D80,", ", E80,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 10, 4, 2)</v>
       </c>
     </row>
@@ -9447,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="F81" t="str">
-        <f>_xlfn.CONCAT( "(",B81,", ", C81,", ", D81,", ", E81,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 11, 4, 2)</v>
       </c>
     </row>
@@ -9468,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="F82" t="str">
-        <f>_xlfn.CONCAT( "(",B82,", ", C82,", ", D82,", ", E82,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 12, 4, 2)</v>
       </c>
     </row>
@@ -9489,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="str">
-        <f>_xlfn.CONCAT( "(",B83,", ", C83,", ", D83,", ", E83,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 13, 4, 2)</v>
       </c>
     </row>
@@ -9510,7 +9511,7 @@
         <v>2</v>
       </c>
       <c r="F84" t="str">
-        <f>_xlfn.CONCAT( "(",B84,", ", C84,", ", D84,", ", E84,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 14, 4, 2)</v>
       </c>
     </row>
@@ -9531,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="F85" t="str">
-        <f>_xlfn.CONCAT( "(",B85,", ", C85,", ", D85,", ", E85,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 15, 4, 2)</v>
       </c>
     </row>
@@ -9552,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="F86" t="str">
-        <f>_xlfn.CONCAT( "(",B86,", ", C86,", ", D86,", ", E86,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 16, 4, 2)</v>
       </c>
     </row>
@@ -9573,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="str">
-        <f>_xlfn.CONCAT( "(",B87,", ", C87,", ", D87,", ", E87,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 17, 4, 2)</v>
       </c>
     </row>
@@ -9594,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="str">
-        <f>_xlfn.CONCAT( "(",B88,", ", C88,", ", D88,", ", E88,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 18, 4, 2)</v>
       </c>
     </row>
@@ -9615,7 +9616,7 @@
         <v>2</v>
       </c>
       <c r="F89" t="str">
-        <f>_xlfn.CONCAT( "(",B89,", ", C89,", ", D89,", ", E89,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 19, 4, 2)</v>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="F90" t="str">
-        <f>_xlfn.CONCAT( "(",B90,", ", C90,", ", D90,", ", E90,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 20, 4, 2)</v>
       </c>
     </row>
@@ -9657,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="str">
-        <f>_xlfn.CONCAT( "(",B91,", ", C91,", ", D91,", ", E91,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 21, 4, 2)</v>
       </c>
     </row>
@@ -9678,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="F92" t="str">
-        <f>_xlfn.CONCAT( "(",B92,", ", C92,", ", D92,", ", E92,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 22, 4, 2)</v>
       </c>
     </row>
@@ -9699,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="str">
-        <f>_xlfn.CONCAT( "(",B93,", ", C93,", ", D93,", ", E93,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 23, 4, 2)</v>
       </c>
     </row>
@@ -9720,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="str">
-        <f>_xlfn.CONCAT( "(",B94,", ", C94,", ", D94,", ", E94,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 24, 4, 2)</v>
       </c>
     </row>
@@ -9741,7 +9742,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="str">
-        <f>_xlfn.CONCAT( "(",B95,", ", C95,", ", D95,", ", E95,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 25, 4, 2)</v>
       </c>
     </row>
@@ -9762,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="str">
-        <f>_xlfn.CONCAT( "(",B96,", ", C96,", ", D96,", ", E96,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 26, 4, 2)</v>
       </c>
     </row>
@@ -9783,7 +9784,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="str">
-        <f>_xlfn.CONCAT( "(",B97,", ", C97,", ", D97,", ", E97,")")</f>
+        <f t="shared" si="2"/>
         <v>(10, 27, 4, 2)</v>
       </c>
     </row>
@@ -9804,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="str">
-        <f>_xlfn.CONCAT( "(",B98,", ", C98,", ", D98,", ", E98,")")</f>
+        <f t="shared" ref="F98:F129" si="3">_xlfn.CONCAT( "(",B98,", ", C98,", ", D98,", ", E98,")")</f>
         <v>(10, 28, 4, 2)</v>
       </c>
     </row>
@@ -9825,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="F99" t="str">
-        <f>_xlfn.CONCAT( "(",B99,", ", C99,", ", D99,", ", E99,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 29, 4, 2)</v>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="str">
-        <f>_xlfn.CONCAT( "(",B100,", ", C100,", ", D100,", ", E100,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 30, 4, 2)</v>
       </c>
     </row>
@@ -9867,7 +9868,7 @@
         <v>2</v>
       </c>
       <c r="F101" t="str">
-        <f>_xlfn.CONCAT( "(",B101,", ", C101,", ", D101,", ", E101,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 31, 4, 2)</v>
       </c>
     </row>
@@ -9888,7 +9889,7 @@
         <v>2</v>
       </c>
       <c r="F102" t="str">
-        <f>_xlfn.CONCAT( "(",B102,", ", C102,", ", D102,", ", E102,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 32, 4, 2)</v>
       </c>
     </row>
@@ -9909,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="str">
-        <f>_xlfn.CONCAT( "(",B103,", ", C103,", ", D103,", ", E103,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 33, 4, 2)</v>
       </c>
     </row>
@@ -9930,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="str">
-        <f>_xlfn.CONCAT( "(",B104,", ", C104,", ", D104,", ", E104,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 34, 4, 2)</v>
       </c>
     </row>
@@ -9951,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="F105" t="str">
-        <f>_xlfn.CONCAT( "(",B105,", ", C105,", ", D105,", ", E105,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 35, 4, 2)</v>
       </c>
     </row>
@@ -9972,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="F106" t="str">
-        <f>_xlfn.CONCAT( "(",B106,", ", C106,", ", D106,", ", E106,")")</f>
+        <f t="shared" si="3"/>
         <v>(10, 36, 4, 2)</v>
       </c>
     </row>
@@ -9993,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="F107" t="str">
-        <f>_xlfn.CONCAT( "(",B107,", ", C107,", ", D107,", ", E107,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 10, 4, 2)</v>
       </c>
     </row>
@@ -10014,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="F108" t="str">
-        <f>_xlfn.CONCAT( "(",B108,", ", C108,", ", D108,", ", E108,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 11, 4, 2)</v>
       </c>
     </row>
@@ -10035,7 +10036,7 @@
         <v>2</v>
       </c>
       <c r="F109" t="str">
-        <f>_xlfn.CONCAT( "(",B109,", ", C109,", ", D109,", ", E109,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 12, 4, 2)</v>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
         <v>2</v>
       </c>
       <c r="F110" t="str">
-        <f>_xlfn.CONCAT( "(",B110,", ", C110,", ", D110,", ", E110,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 13, 4, 2)</v>
       </c>
     </row>
@@ -10077,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="F111" t="str">
-        <f>_xlfn.CONCAT( "(",B111,", ", C111,", ", D111,", ", E111,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 14, 4, 2)</v>
       </c>
     </row>
@@ -10098,7 +10099,7 @@
         <v>2</v>
       </c>
       <c r="F112" t="str">
-        <f>_xlfn.CONCAT( "(",B112,", ", C112,", ", D112,", ", E112,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 15, 4, 2)</v>
       </c>
     </row>
@@ -10119,7 +10120,7 @@
         <v>2</v>
       </c>
       <c r="F113" t="str">
-        <f>_xlfn.CONCAT( "(",B113,", ", C113,", ", D113,", ", E113,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 16, 4, 2)</v>
       </c>
     </row>
@@ -10140,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="F114" t="str">
-        <f>_xlfn.CONCAT( "(",B114,", ", C114,", ", D114,", ", E114,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 17, 4, 2)</v>
       </c>
     </row>
@@ -10161,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="F115" t="str">
-        <f>_xlfn.CONCAT( "(",B115,", ", C115,", ", D115,", ", E115,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 18, 4, 2)</v>
       </c>
     </row>
@@ -10182,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="F116" t="str">
-        <f>_xlfn.CONCAT( "(",B116,", ", C116,", ", D116,", ", E116,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 19, 4, 2)</v>
       </c>
     </row>
@@ -10203,7 +10204,7 @@
         <v>2</v>
       </c>
       <c r="F117" t="str">
-        <f>_xlfn.CONCAT( "(",B117,", ", C117,", ", D117,", ", E117,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 20, 4, 2)</v>
       </c>
     </row>
@@ -10224,7 +10225,7 @@
         <v>2</v>
       </c>
       <c r="F118" t="str">
-        <f>_xlfn.CONCAT( "(",B118,", ", C118,", ", D118,", ", E118,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 21, 4, 2)</v>
       </c>
     </row>
@@ -10245,7 +10246,7 @@
         <v>2</v>
       </c>
       <c r="F119" t="str">
-        <f>_xlfn.CONCAT( "(",B119,", ", C119,", ", D119,", ", E119,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 22, 4, 2)</v>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
         <v>2</v>
       </c>
       <c r="F120" t="str">
-        <f>_xlfn.CONCAT( "(",B120,", ", C120,", ", D120,", ", E120,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 23, 4, 2)</v>
       </c>
     </row>
@@ -10287,7 +10288,7 @@
         <v>2</v>
       </c>
       <c r="F121" t="str">
-        <f>_xlfn.CONCAT( "(",B121,", ", C121,", ", D121,", ", E121,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 24, 4, 2)</v>
       </c>
     </row>
@@ -10308,7 +10309,7 @@
         <v>2</v>
       </c>
       <c r="F122" t="str">
-        <f>_xlfn.CONCAT( "(",B122,", ", C122,", ", D122,", ", E122,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 25, 4, 2)</v>
       </c>
     </row>
@@ -10329,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="F123" t="str">
-        <f>_xlfn.CONCAT( "(",B123,", ", C123,", ", D123,", ", E123,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 26, 4, 2)</v>
       </c>
     </row>
@@ -10350,7 +10351,7 @@
         <v>2</v>
       </c>
       <c r="F124" t="str">
-        <f>_xlfn.CONCAT( "(",B124,", ", C124,", ", D124,", ", E124,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 27, 4, 2)</v>
       </c>
     </row>
@@ -10371,7 +10372,7 @@
         <v>2</v>
       </c>
       <c r="F125" t="str">
-        <f>_xlfn.CONCAT( "(",B125,", ", C125,", ", D125,", ", E125,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 28, 4, 2)</v>
       </c>
     </row>
@@ -10392,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="F126" t="str">
-        <f>_xlfn.CONCAT( "(",B126,", ", C126,", ", D126,", ", E126,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 29, 4, 2)</v>
       </c>
     </row>
@@ -10413,7 +10414,7 @@
         <v>2</v>
       </c>
       <c r="F127" t="str">
-        <f>_xlfn.CONCAT( "(",B127,", ", C127,", ", D127,", ", E127,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 30, 4, 2)</v>
       </c>
     </row>
@@ -10434,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="F128" t="str">
-        <f>_xlfn.CONCAT( "(",B128,", ", C128,", ", D128,", ", E128,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 31, 4, 2)</v>
       </c>
     </row>
@@ -10455,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="F129" t="str">
-        <f>_xlfn.CONCAT( "(",B129,", ", C129,", ", D129,", ", E129,")")</f>
+        <f t="shared" si="3"/>
         <v>(11, 32, 4, 2)</v>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
         <v>2</v>
       </c>
       <c r="F130" t="str">
-        <f>_xlfn.CONCAT( "(",B130,", ", C130,", ", D130,", ", E130,")")</f>
+        <f t="shared" ref="F130:F161" si="4">_xlfn.CONCAT( "(",B130,", ", C130,", ", D130,", ", E130,")")</f>
         <v>(11, 33, 4, 2)</v>
       </c>
     </row>
@@ -10497,7 +10498,7 @@
         <v>2</v>
       </c>
       <c r="F131" t="str">
-        <f>_xlfn.CONCAT( "(",B131,", ", C131,", ", D131,", ", E131,")")</f>
+        <f t="shared" si="4"/>
         <v>(11, 34, 4, 2)</v>
       </c>
     </row>
@@ -10518,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="F132" t="str">
-        <f>_xlfn.CONCAT( "(",B132,", ", C132,", ", D132,", ", E132,")")</f>
+        <f t="shared" si="4"/>
         <v>(11, 35, 4, 2)</v>
       </c>
     </row>
@@ -10539,7 +10540,7 @@
         <v>2</v>
       </c>
       <c r="F133" t="str">
-        <f>_xlfn.CONCAT( "(",B133,", ", C133,", ", D133,", ", E133,")")</f>
+        <f t="shared" si="4"/>
         <v>(11, 36, 4, 2)</v>
       </c>
     </row>
@@ -10560,7 +10561,7 @@
         <v>2</v>
       </c>
       <c r="F134" t="str">
-        <f>_xlfn.CONCAT( "(",B134,", ", C134,", ", D134,", ", E134,")")</f>
+        <f t="shared" si="4"/>
         <v>(12, 10, 4, 2)</v>
       </c>
     </row>
@@ -10581,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="F135" t="str">
-        <f>_xlfn.CONCAT( "(",B135,", ", C135,", ", D135,", ", E135,")")</f>
+        <f t="shared" si="4"/>
         <v>(13, 11, 4, 2)</v>
       </c>
     </row>
@@ -10602,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="F136" t="str">
-        <f>_xlfn.CONCAT( "(",B136,", ", C136,", ", D136,", ", E136,")")</f>
+        <f t="shared" si="4"/>
         <v>(14, 1, 2, 2)</v>
       </c>
     </row>
@@ -10623,7 +10624,7 @@
         <v>2</v>
       </c>
       <c r="F137" t="str">
-        <f>_xlfn.CONCAT( "(",B137,", ", C137,", ", D137,", ", E137,")")</f>
+        <f t="shared" si="4"/>
         <v>(15, 1, 2, 2)</v>
       </c>
     </row>
@@ -10644,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="F138" t="str">
-        <f>_xlfn.CONCAT( "(",B138,", ", C138,", ", D138,", ", E138,")")</f>
+        <f t="shared" si="4"/>
         <v>(16, 1, 2, 2)</v>
       </c>
     </row>
@@ -10665,7 +10666,7 @@
         <v>2</v>
       </c>
       <c r="F139" t="str">
-        <f>_xlfn.CONCAT( "(",B139,", ", C139,", ", D139,", ", E139,")")</f>
+        <f t="shared" si="4"/>
         <v>(17, 1, 2, 2)</v>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="F140" t="str">
-        <f>_xlfn.CONCAT( "(",B140,", ", C140,", ", D140,", ", E140,")")</f>
+        <f t="shared" si="4"/>
         <v>(18, 1, 2, 2)</v>
       </c>
     </row>
@@ -10707,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="F141" t="str">
-        <f>_xlfn.CONCAT( "(",B141,", ", C141,", ", D141,", ", E141,")")</f>
+        <f t="shared" si="4"/>
         <v>(19, 10, 4, 2)</v>
       </c>
     </row>
@@ -10728,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="F142" t="str">
-        <f>_xlfn.CONCAT( "(",B142,", ", C142,", ", D142,", ", E142,")")</f>
+        <f t="shared" si="4"/>
         <v>(20, 10, 4, 2)</v>
       </c>
     </row>
@@ -10749,7 +10750,7 @@
         <v>2</v>
       </c>
       <c r="F143" t="str">
-        <f>_xlfn.CONCAT( "(",B143,", ", C143,", ", D143,", ", E143,")")</f>
+        <f t="shared" si="4"/>
         <v>(21, 11, 4, 2)</v>
       </c>
     </row>
@@ -10770,7 +10771,7 @@
         <v>2</v>
       </c>
       <c r="F144" t="str">
-        <f>_xlfn.CONCAT( "(",B144,", ", C144,", ", D144,", ", E144,")")</f>
+        <f t="shared" si="4"/>
         <v>(22, 10, 5, 2)</v>
       </c>
     </row>
@@ -10791,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="F145" t="str">
-        <f>_xlfn.CONCAT( "(",B145,", ", C145,", ", D145,", ", E145,")")</f>
+        <f t="shared" si="4"/>
         <v>(22, 11, 5, 2)</v>
       </c>
     </row>
@@ -10812,7 +10813,7 @@
         <v>2</v>
       </c>
       <c r="F146" t="str">
-        <f>_xlfn.CONCAT( "(",B146,", ", C146,", ", D146,", ", E146,")")</f>
+        <f t="shared" si="4"/>
         <v>(20, 10, 5, 2)</v>
       </c>
     </row>
@@ -10833,7 +10834,7 @@
         <v>2</v>
       </c>
       <c r="F147" t="str">
-        <f>_xlfn.CONCAT( "(",B147,", ", C147,", ", D147,", ", E147,")")</f>
+        <f t="shared" si="4"/>
         <v>(23, 1, 2, 2)</v>
       </c>
     </row>
@@ -10854,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="F148" t="str">
-        <f>_xlfn.CONCAT( "(",B148,", ", C148,", ", D148,", ", E148,")")</f>
+        <f t="shared" si="4"/>
         <v>(23, 2, 4, 2)</v>
       </c>
     </row>
@@ -10875,7 +10876,7 @@
         <v>2</v>
       </c>
       <c r="F149" t="str">
-        <f>_xlfn.CONCAT( "(",B149,", ", C149,", ", D149,", ", E149,")")</f>
+        <f t="shared" si="4"/>
         <v>(23, 3, 4, 2)</v>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="F150" t="str">
-        <f>_xlfn.CONCAT( "(",B150,", ", C150,", ", D150,", ", E150,")")</f>
+        <f t="shared" si="4"/>
         <v>(9, 4, 9, 4)</v>
       </c>
     </row>
@@ -10917,7 +10918,7 @@
         <v>4</v>
       </c>
       <c r="F151" t="str">
-        <f>_xlfn.CONCAT( "(",B151,", ", C151,", ", D151,", ", E151,")")</f>
+        <f t="shared" si="4"/>
         <v>(9, 5, 9, 4)</v>
       </c>
     </row>
@@ -10938,7 +10939,7 @@
         <v>4</v>
       </c>
       <c r="F152" t="str">
-        <f>_xlfn.CONCAT( "(",B152,", ", C152,", ", D152,", ", E152,")")</f>
+        <f t="shared" si="4"/>
         <v>(9, 6, 9, 4)</v>
       </c>
     </row>
@@ -10959,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="F153" t="str">
-        <f>_xlfn.CONCAT( "(",B153,", ", C153,", ", D153,", ", E153,")")</f>
+        <f t="shared" si="4"/>
         <v>(9, 9, 9, 4)</v>
       </c>
     </row>
@@ -10980,7 +10981,7 @@
         <v>4</v>
       </c>
       <c r="F154" t="str">
-        <f>_xlfn.CONCAT( "(",B154,", ", C154,", ", D154,", ", E154,")")</f>
+        <f t="shared" si="4"/>
         <v>(6, 4, 9, 4)</v>
       </c>
     </row>
@@ -11001,7 +11002,7 @@
         <v>4</v>
       </c>
       <c r="F155" t="str">
-        <f>_xlfn.CONCAT( "(",B155,", ", C155,", ", D155,", ", E155,")")</f>
+        <f t="shared" si="4"/>
         <v>(6, 5, 9, 4)</v>
       </c>
     </row>
@@ -11022,7 +11023,7 @@
         <v>4</v>
       </c>
       <c r="F156" t="str">
-        <f>_xlfn.CONCAT( "(",B156,", ", C156,", ", D156,", ", E156,")")</f>
+        <f t="shared" si="4"/>
         <v>(6, 6, 9, 4)</v>
       </c>
     </row>
@@ -11043,7 +11044,7 @@
         <v>4</v>
       </c>
       <c r="F157" t="str">
-        <f>_xlfn.CONCAT( "(",B157,", ", C157,", ", D157,", ", E157,")")</f>
+        <f t="shared" si="4"/>
         <v>(6, 9, 9, 4)</v>
       </c>
     </row>
@@ -11064,7 +11065,7 @@
         <v>4</v>
       </c>
       <c r="F158" t="str">
-        <f>_xlfn.CONCAT( "(",B158,", ", C158,", ", D158,", ", E158,")")</f>
+        <f t="shared" si="4"/>
         <v>(5, 4, 9, 4)</v>
       </c>
     </row>
@@ -11085,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="F159" t="str">
-        <f>_xlfn.CONCAT( "(",B159,", ", C159,", ", D159,", ", E159,")")</f>
+        <f t="shared" si="4"/>
         <v>(5, 5, 9, 4)</v>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="F160" t="str">
-        <f>_xlfn.CONCAT( "(",B160,", ", C160,", ", D160,", ", E160,")")</f>
+        <f t="shared" si="4"/>
         <v>(5, 6, 9, 4)</v>
       </c>
     </row>
@@ -11127,7 +11128,7 @@
         <v>4</v>
       </c>
       <c r="F161" t="str">
-        <f>_xlfn.CONCAT( "(",B161,", ", C161,", ", D161,", ", E161,")")</f>
+        <f t="shared" si="4"/>
         <v>(5, 9, 9, 4)</v>
       </c>
     </row>
@@ -11148,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="F162" t="str">
-        <f>_xlfn.CONCAT( "(",B162,", ", C162,", ", D162,", ", E162,")")</f>
+        <f t="shared" ref="F162:F193" si="5">_xlfn.CONCAT( "(",B162,", ", C162,", ", D162,", ", E162,")")</f>
         <v>(22, 4, 9, 4)</v>
       </c>
     </row>
@@ -11169,7 +11170,7 @@
         <v>4</v>
       </c>
       <c r="F163" t="str">
-        <f>_xlfn.CONCAT( "(",B163,", ", C163,", ", D163,", ", E163,")")</f>
+        <f t="shared" si="5"/>
         <v>(22, 5, 9, 4)</v>
       </c>
     </row>
@@ -11190,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="F164" t="str">
-        <f>_xlfn.CONCAT( "(",B164,", ", C164,", ", D164,", ", E164,")")</f>
+        <f t="shared" si="5"/>
         <v>(22, 9, 9, 4)</v>
       </c>
     </row>
@@ -11211,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="F165" t="str">
-        <f>_xlfn.CONCAT( "(",B165,", ", C165,", ", D165,", ", E165,")")</f>
+        <f t="shared" si="5"/>
         <v>(23, 4, 9, 4)</v>
       </c>
     </row>
@@ -11232,7 +11233,7 @@
         <v>4</v>
       </c>
       <c r="F166" t="str">
-        <f>_xlfn.CONCAT( "(",B166,", ", C166,", ", D166,", ", E166,")")</f>
+        <f t="shared" si="5"/>
         <v>(23, 5, 9, 4)</v>
       </c>
     </row>
@@ -11253,7 +11254,7 @@
         <v>4</v>
       </c>
       <c r="F167" t="str">
-        <f>_xlfn.CONCAT( "(",B167,", ", C167,", ", D167,", ", E167,")")</f>
+        <f t="shared" si="5"/>
         <v>(23, 6, 9, 4)</v>
       </c>
     </row>
@@ -11274,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="F168" t="str">
-        <f>_xlfn.CONCAT( "(",B168,", ", C168,", ", D168,", ", E168,")")</f>
+        <f t="shared" si="5"/>
         <v>(23, 9, 9, 4)</v>
       </c>
     </row>
@@ -11295,7 +11296,7 @@
         <v>4</v>
       </c>
       <c r="F169" t="str">
-        <f>_xlfn.CONCAT( "(",B169,", ", C169,", ", D169,", ", E169,")")</f>
+        <f t="shared" si="5"/>
         <v>(24, 4, 9, 4)</v>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
         <v>4</v>
       </c>
       <c r="F170" t="str">
-        <f>_xlfn.CONCAT( "(",B170,", ", C170,", ", D170,", ", E170,")")</f>
+        <f t="shared" si="5"/>
         <v>(24, 5, 9, 4)</v>
       </c>
     </row>
@@ -11337,7 +11338,7 @@
         <v>4</v>
       </c>
       <c r="F171" t="str">
-        <f>_xlfn.CONCAT( "(",B171,", ", C171,", ", D171,", ", E171,")")</f>
+        <f t="shared" si="5"/>
         <v>(24, 6, 9, 4)</v>
       </c>
     </row>
@@ -11358,7 +11359,7 @@
         <v>4</v>
       </c>
       <c r="F172" t="str">
-        <f>_xlfn.CONCAT( "(",B172,", ", C172,", ", D172,", ", E172,")")</f>
+        <f t="shared" si="5"/>
         <v>(24, 9, 9, 4)</v>
       </c>
     </row>
@@ -11379,7 +11380,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="str">
-        <f>_xlfn.CONCAT( "(",B173,", ", C173,", ", D173,", ", E173,")")</f>
+        <f t="shared" si="5"/>
         <v>(25, 4, 9, 4)</v>
       </c>
     </row>
@@ -11400,7 +11401,7 @@
         <v>4</v>
       </c>
       <c r="F174" t="str">
-        <f>_xlfn.CONCAT( "(",B174,", ", C174,", ", D174,", ", E174,")")</f>
+        <f t="shared" si="5"/>
         <v>(25, 5, 9, 4)</v>
       </c>
     </row>
@@ -11421,7 +11422,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="str">
-        <f>_xlfn.CONCAT( "(",B175,", ", C175,", ", D175,", ", E175,")")</f>
+        <f t="shared" si="5"/>
         <v>(25, 6, 9, 4)</v>
       </c>
     </row>
@@ -11442,7 +11443,7 @@
         <v>4</v>
       </c>
       <c r="F176" t="str">
-        <f>_xlfn.CONCAT( "(",B176,", ", C176,", ", D176,", ", E176,")")</f>
+        <f t="shared" si="5"/>
         <v>(25, 9, 9, 4)</v>
       </c>
     </row>
@@ -11463,7 +11464,7 @@
         <v>4</v>
       </c>
       <c r="F177" t="str">
-        <f>_xlfn.CONCAT( "(",B177,", ", C177,", ", D177,", ", E177,")")</f>
+        <f t="shared" si="5"/>
         <v>(26, 4, 9, 4)</v>
       </c>
     </row>
@@ -11484,7 +11485,7 @@
         <v>4</v>
       </c>
       <c r="F178" t="str">
-        <f>_xlfn.CONCAT( "(",B178,", ", C178,", ", D178,", ", E178,")")</f>
+        <f t="shared" si="5"/>
         <v>(26, 5, 9, 4)</v>
       </c>
     </row>
@@ -11505,7 +11506,7 @@
         <v>4</v>
       </c>
       <c r="F179" t="str">
-        <f>_xlfn.CONCAT( "(",B179,", ", C179,", ", D179,", ", E179,")")</f>
+        <f t="shared" si="5"/>
         <v>(26, 6, 9, 4)</v>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
         <v>4</v>
       </c>
       <c r="F180" t="str">
-        <f>_xlfn.CONCAT( "(",B180,", ", C180,", ", D180,", ", E180,")")</f>
+        <f t="shared" si="5"/>
         <v>(26, 9, 9, 4)</v>
       </c>
     </row>
@@ -11547,7 +11548,7 @@
         <v>4</v>
       </c>
       <c r="F181" t="str">
-        <f>_xlfn.CONCAT( "(",B181,", ", C181,", ", D181,", ", E181,")")</f>
+        <f t="shared" si="5"/>
         <v>(27, 4, 9, 4)</v>
       </c>
     </row>
@@ -11568,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="F182" t="str">
-        <f>_xlfn.CONCAT( "(",B182,", ", C182,", ", D182,", ", E182,")")</f>
+        <f t="shared" si="5"/>
         <v>(27, 5, 9, 4)</v>
       </c>
     </row>
@@ -11589,7 +11590,7 @@
         <v>4</v>
       </c>
       <c r="F183" t="str">
-        <f>_xlfn.CONCAT( "(",B183,", ", C183,", ", D183,", ", E183,")")</f>
+        <f t="shared" si="5"/>
         <v>(27, 9, 9, 4)</v>
       </c>
     </row>
@@ -11610,7 +11611,7 @@
         <v>4</v>
       </c>
       <c r="F184" t="str">
-        <f>_xlfn.CONCAT( "(",B184,", ", C184,", ", D184,", ", E184,")")</f>
+        <f t="shared" si="5"/>
         <v>(28, 4, 9, 4)</v>
       </c>
     </row>
@@ -11631,7 +11632,7 @@
         <v>4</v>
       </c>
       <c r="F185" t="str">
-        <f>_xlfn.CONCAT( "(",B185,", ", C185,", ", D185,", ", E185,")")</f>
+        <f t="shared" si="5"/>
         <v>(28, 5, 9, 4)</v>
       </c>
     </row>
@@ -11652,7 +11653,7 @@
         <v>4</v>
       </c>
       <c r="F186" t="str">
-        <f>_xlfn.CONCAT( "(",B186,", ", C186,", ", D186,", ", E186,")")</f>
+        <f t="shared" si="5"/>
         <v>(28, 6, 9, 4)</v>
       </c>
     </row>
@@ -11673,7 +11674,7 @@
         <v>4</v>
       </c>
       <c r="F187" t="str">
-        <f>_xlfn.CONCAT( "(",B187,", ", C187,", ", D187,", ", E187,")")</f>
+        <f t="shared" si="5"/>
         <v>(28, 9, 9, 4)</v>
       </c>
     </row>
@@ -11748,7 +11749,7 @@
         <v>13.12</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,", ", F2,", ", G2,")")</f>
+        <f t="shared" ref="H2:H32" si="0">_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,", ", F2,", ", G2,")")</f>
         <v>(1, 1, 1, 1, 4, 13.12)</v>
       </c>
       <c r="I2" t="str" cm="1">
@@ -11776,11 +11777,11 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="0">F3*3.28</f>
+        <f t="shared" ref="G3:G32" si="1">F3*3.28</f>
         <v>13.12</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT( "(",B3,", ", C3,", ", D3,", ", E3,", ", F3,", ", G3,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 2, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11804,11 +11805,11 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT( "(",B4,", ", C4,", ", D4,", ", E4,", ", F4,", ", G4,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 3, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11832,11 +11833,11 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT( "(",B5,", ", C5,", ", D5,", ", E5,", ", F5,", ", G5,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 4, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11860,11 +11861,11 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT( "(",B6,", ", C6,", ", D6,", ", E6,", ", F6,", ", G6,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 5, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11888,11 +11889,11 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT( "(",B7,", ", C7,", ", D7,", ", E7,", ", F7,", ", G7,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 6, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11916,11 +11917,11 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT( "(",B8,", ", C8,", ", D8,", ", E8,", ", F8,", ", G8,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 7, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11944,11 +11945,11 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT( "(",B9,", ", C9,", ", D9,", ", E9,", ", F9,", ", G9,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 8, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -11972,11 +11973,11 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT( "(",B10,", ", C10,", ", D10,", ", E10,", ", F10,", ", G10,")")</f>
+        <f t="shared" si="0"/>
         <v>(3, 9, 1, 1, 6, 19.68)</v>
       </c>
     </row>
@@ -12000,11 +12001,11 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT( "(",B11,", ", C11,", ", D11,", ", E11,", ", F11,", ", G11,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 2, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12028,11 +12029,11 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT( "(",B12,", ", C12,", ", D12,", ", E12,", ", F12,", ", G12,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 3, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12056,11 +12057,11 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT( "(",B13,", ", C13,", ", D13,", ", E13,", ", F13,", ", G13,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 4, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12084,11 +12085,11 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT( "(",B14,", ", C14,", ", D14,", ", E14,", ", F14,", ", G14,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 5, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12112,11 +12113,11 @@
         <v>4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT( "(",B15,", ", C15,", ", D15,", ", E15,", ", F15,", ", G15,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 6, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12140,11 +12141,11 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.CONCAT( "(",B16,", ", C16,", ", D16,", ", E16,", ", F16,", ", G16,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 7, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12168,11 +12169,11 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT( "(",B17,", ", C17,", ", D17,", ", E17,", ", F17,", ", G17,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 8, 1, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12196,11 +12197,11 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT( "(",B18,", ", C18,", ", D18,", ", E18,", ", F18,", ", G18,")")</f>
+        <f t="shared" si="0"/>
         <v>(6, 9, 1, 1, 6, 19.68)</v>
       </c>
     </row>
@@ -12224,11 +12225,11 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT( "(",B19,", ", C19,", ", D19,", ", E19,", ", F19,", ", G19,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 5, 2, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12252,11 +12253,11 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT( "(",B20,", ", C20,", ", D20,", ", E20,", ", F20,", ", G20,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 6, 2, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12280,11 +12281,11 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT( "(",B21,", ", C21,", ", D21,", ", E21,", ", F21,", ", G21,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 7, 2, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12308,11 +12309,11 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT( "(",B22,", ", C22,", ", D22,", ", E22,", ", F22,", ", G22,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 8, 2, 1, 4, 13.12)</v>
       </c>
     </row>
@@ -12336,11 +12337,11 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT( "(",B23,", ", C23,", ", D23,", ", E23,", ", F23,", ", G23,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 9, 2, 1, 6, 19.68)</v>
       </c>
     </row>
@@ -12364,11 +12365,11 @@
         <v>6</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT( "(",B24,", ", C24,", ", D24,", ", E24,", ", F24,", ", G24,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 33, 2, 1, 6, 19.68)</v>
       </c>
     </row>
@@ -12392,11 +12393,11 @@
         <v>6</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT( "(",B25,", ", C25,", ", D25,", ", E25,", ", F25,", ", G25,")")</f>
+        <f t="shared" si="0"/>
         <v>(8, 9, 2, 2, 6, 19.68)</v>
       </c>
     </row>
@@ -12420,11 +12421,11 @@
         <v>6</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT( "(",B26,", ", C26,", ", D26,", ", E26,", ", F26,", ", G26,")")</f>
+        <f t="shared" si="0"/>
         <v>(8, 33, 2, 2, 6, 19.68)</v>
       </c>
     </row>
@@ -12448,11 +12449,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT( "(",B27,", ", C27,", ", D27,", ", E27,", ", F27,", ", G27,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 5, 2, 2, 4, 13.12)</v>
       </c>
     </row>
@@ -12476,11 +12477,11 @@
         <v>4</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT( "(",B28,", ", C28,", ", D28,", ", E28,", ", F28,", ", G28,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 6, 2, 2, 4, 13.12)</v>
       </c>
     </row>
@@ -12504,11 +12505,11 @@
         <v>4</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT( "(",B29,", ", C29,", ", D29,", ", E29,", ", F29,", ", G29,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 7, 2, 2, 4, 13.12)</v>
       </c>
     </row>
@@ -12532,11 +12533,11 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT( "(",B30,", ", C30,", ", D30,", ", E30,", ", F30,", ", G30,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 8, 2, 2, 4, 13.12)</v>
       </c>
     </row>
@@ -12560,11 +12561,11 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT( "(",B31,", ", C31,", ", D31,", ", E31,", ", F31,", ", G31,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 9, 2, 2, 6, 19.68)</v>
       </c>
     </row>
@@ -12588,11 +12589,11 @@
         <v>6</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.68</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT( "(",B32,", ", C32,", ", D32,", ", E32,", ", F32,", ", G32,")")</f>
+        <f t="shared" si="0"/>
         <v>(7, 33, 2, 2, 6, 19.68)</v>
       </c>
     </row>
